--- a/sheets/datasets.xlsx
+++ b/sheets/datasets.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauth\OneDrive\Desktop\LLM Assistant File - V2\fine_tuning\embeddings\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD4FD98-8DE7-4691-88B5-F6B64A8BC4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39744944-763A-4B50-917B-59E71F78BBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="7956" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keywords" sheetId="1" r:id="rId1"/>
     <sheet name="sub_queries" sheetId="2" r:id="rId2"/>
     <sheet name="chunks" sheetId="3" r:id="rId3"/>
+    <sheet name="openia" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="422">
   <si>
     <t>measurement system</t>
   </si>
@@ -936,6 +937,507 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>scores</t>
+  </si>
+  <si>
+    <t>This text talks about flow computers, devices used in measurement engineering to collect, process, and transmit data (e.g., temperature, pressure, and fluid volume) from sensors and flow meters, aiding engineers in analysis and measurement tasks.</t>
+  </si>
+  <si>
+    <t>This text talks about how flow computers generate and store organized reports containing operational data, stored in tables (main and detail) linked to a Modbus table for easier data interpretation.</t>
+  </si>
+  <si>
+    <t>This text talks about the relationship between flow computers and measurement systems, where multiple systems can be assigned to a flow computer, but each system links to only one flow computer, with this relationship stored in a database table using terms like meter streams and runs.</t>
+  </si>
+  <si>
+    <t>This text talks about measurement systems, tools for monitoring fluids in industrial processes, classified by process stage (e.g., fiscal, custody) and identified by a unique TAG. They measure various fluids using differential or linear technologies, depending on the type, with gas and oil systems employing distinct methodologies.</t>
+  </si>
+  <si>
+    <t>This text talks about measuring equipment, devices within a measurement system identified by serial numbers and Equipment Tags. Tags indicate usage status (in use or spare), with equipment assigned based on technology (e.g., differential or linear). A database table tracks these assignments, linking equipment to measurement systems.</t>
+  </si>
+  <si>
+    <t>This text talks about measurement equipment, classified into primary, secondary, and tertiary meters based on the type of variable they measure. Equipment types (e.g., transmitters, orifice plates) are stored in a database, with meteorological checks (calibration or inspection) to ensure accuracy and proper functioning.</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>This text talks about the data stored by equipment, such as direct measurements of pressure, temperature, and volume, stored in a database table. These values are raw data, not calculated values, and users access them through the measurement system, with variable names linked to another database table for reference.</t>
+  </si>
+  <si>
+    <t>This text talks about uncertainty, which measures the potential error or margin of error in measurements. It explains two types: uncertainty of magnitudes (specific variables like temperature or pressure) and uncertainty of the measurement system (overall flow measurement), with both types stored separately in the database.</t>
+  </si>
+  <si>
+    <t>provider</t>
+  </si>
+  <si>
+    <t>What are the columns in the pressure_data table?</t>
+  </si>
+  <si>
+    <t>openai</t>
+  </si>
+  <si>
+    <t>What is the data type of the uncertainty_value column?</t>
+  </si>
+  <si>
+    <t>What is the format of the timestamp column?</t>
+  </si>
+  <si>
+    <t>Are there any indexes on the pressure_data table?</t>
+  </si>
+  <si>
+    <t>What are the common tags used in the pressure_data table?</t>
+  </si>
+  <si>
+    <t>How is the uncertainty_value calculated or derived?</t>
+  </si>
+  <si>
+    <t>Are there any constraints on the pressure_data table?</t>
+  </si>
+  <si>
+    <t>What tables are related to calibration points?</t>
+  </si>
+  <si>
+    <t>What columns are present in the calibration points table?</t>
+  </si>
+  <si>
+    <t>How is the calibration number stored in the database?</t>
+  </si>
+  <si>
+    <t>Are there any relationships between calibration points and other tables?</t>
+  </si>
+  <si>
+    <t>What is the data type of the calibration number?</t>
+  </si>
+  <si>
+    <t>Are there any filters or conditions commonly used with calibration points?</t>
+  </si>
+  <si>
+    <t>What is the typical structure of a query retrieving calibration points?</t>
+  </si>
+  <si>
+    <t>What are the main tables related to pressure data?</t>
+  </si>
+  <si>
+    <t>What columns exist in the pressure_data table?</t>
+  </si>
+  <si>
+    <t>Are there any constraints on the calibration number field?</t>
+  </si>
+  <si>
+    <t>What is the typical query structure to retrieve calibration points?</t>
+  </si>
+  <si>
+    <t>What columns are available in the equipment table?</t>
+  </si>
+  <si>
+    <t>Are there any relationships between equipment and calibration points?</t>
+  </si>
+  <si>
+    <t>What is the data type of the equipment tag?</t>
+  </si>
+  <si>
+    <t>Are there any filters or conditions typically used for retrieving calibration points?</t>
+  </si>
+  <si>
+    <t>What are the columns in the equipment table?</t>
+  </si>
+  <si>
+    <t>What are the columns in the equipment_type table?</t>
+  </si>
+  <si>
+    <t>What are the columns in the equipment_classification table?</t>
+  </si>
+  <si>
+    <t>What are the relationships between equipment and equipment_type?</t>
+  </si>
+  <si>
+    <t>What are the relationships between equipment and equipment_classification?</t>
+  </si>
+  <si>
+    <t>What is the data type of the tag column in the equipment table?</t>
+  </si>
+  <si>
+    <t>Are there any constraints on the tag column in the equipment table?</t>
+  </si>
+  <si>
+    <t>What tables contain information about equipment classes?</t>
+  </si>
+  <si>
+    <t>What fields are available in the equipment table?</t>
+  </si>
+  <si>
+    <t>How is the equipment type linked to the equipment tag?</t>
+  </si>
+  <si>
+    <t>What is the relationship between equipment and systems?</t>
+  </si>
+  <si>
+    <t>Are there any specific filters for secondary equipment?</t>
+  </si>
+  <si>
+    <t>What is the structure of the system table?</t>
+  </si>
+  <si>
+    <t>How are serial numbers stored in the database?</t>
+  </si>
+  <si>
+    <t>What tables store equipment information?</t>
+  </si>
+  <si>
+    <t>What columns are present in the equipment table?</t>
+  </si>
+  <si>
+    <t>How is calibration data related to equipment?</t>
+  </si>
+  <si>
+    <t>What is the data type of the calibration date column?</t>
+  </si>
+  <si>
+    <t>Are there any constraints on the calibration date?</t>
+  </si>
+  <si>
+    <t>How can I filter calibration records by equipment tag?</t>
+  </si>
+  <si>
+    <t>What tables contain information about equipment serials?</t>
+  </si>
+  <si>
+    <t>What variables can each equipment read?</t>
+  </si>
+  <si>
+    <t>How is the tag &amp;&amp;&amp;EMED-3138.11-128&amp;&amp;&amp; related to equipment?</t>
+  </si>
+  <si>
+    <t>What is the relationship between equipment and their serials?</t>
+  </si>
+  <si>
+    <t>Are there any specific attributes associated with the tag &amp;&amp;&amp;EMED-3138.11-128&amp;&amp;&amp;?</t>
+  </si>
+  <si>
+    <t>What is the structure of the data related to equipment in the database?</t>
+  </si>
+  <si>
+    <t>Are there any constraints or filters related to the equipment data?</t>
+  </si>
+  <si>
+    <t>What tables store uncertainty reports?</t>
+  </si>
+  <si>
+    <t>What columns are present in the uncertainty reports table?</t>
+  </si>
+  <si>
+    <t>How is temperature data related to equipment tags?</t>
+  </si>
+  <si>
+    <t>How can I filter uncertainty reports by equipment tag?</t>
+  </si>
+  <si>
+    <t>What is the format of the date column in the uncertainty reports?</t>
+  </si>
+  <si>
+    <t>How can I retrieve the latest report for a specific equipment tag?</t>
+  </si>
+  <si>
+    <t>What columns are available in the uncertainty reports table?</t>
+  </si>
+  <si>
+    <t>How is temperature recorded in the database?</t>
+  </si>
+  <si>
+    <t>How is differential pressure recorded in the database?</t>
+  </si>
+  <si>
+    <t>What is the relationship between tags and uncertainty reports?</t>
+  </si>
+  <si>
+    <t>How can I filter reports by the tag EMED-3138.12-050?</t>
+  </si>
+  <si>
+    <t>What is the structure of the latest reports in the database?</t>
+  </si>
+  <si>
+    <t>What are the columns in the uncertainty_reports table?</t>
+  </si>
+  <si>
+    <t>What is the data type of the report_date column?</t>
+  </si>
+  <si>
+    <t>How is the equipment_tag column structured?</t>
+  </si>
+  <si>
+    <t>Are there any indexes on the uncertainty_reports table?</t>
+  </si>
+  <si>
+    <t>What is the typical format of report_details?</t>
+  </si>
+  <si>
+    <t>Are there any constraints on the equipment_tag column?</t>
+  </si>
+  <si>
+    <t>What is the most recent report_date for equipment with tag EMED-3138.12-050-DPT?</t>
+  </si>
+  <si>
+    <t>How is temperature data stored in the database?</t>
+  </si>
+  <si>
+    <t>What is the structure of the tag EMED-3138.12-050?</t>
+  </si>
+  <si>
+    <t>Are there any relationships between uncertainty reports and temperature data?</t>
+  </si>
+  <si>
+    <t>How can I filter uncertainty reports by tag?</t>
+  </si>
+  <si>
+    <t>What is the format of the last report retrieval?</t>
+  </si>
+  <si>
+    <t>How is the calibration number structured in the database?</t>
+  </si>
+  <si>
+    <t>Are there any foreign keys related to calibration points?</t>
+  </si>
+  <si>
+    <t>What is the relationship between calibration points and calibrations?</t>
+  </si>
+  <si>
+    <t>Are there any filters or conditions commonly used with calibration queries?</t>
+  </si>
+  <si>
+    <t>What tables are related to flow computers?</t>
+  </si>
+  <si>
+    <t>What columns are available in the flow computers table?</t>
+  </si>
+  <si>
+    <t>What tables are related to meter streams?</t>
+  </si>
+  <si>
+    <t>What columns are available in the meter streams table?</t>
+  </si>
+  <si>
+    <t>How are flow computers and meter streams linked?</t>
+  </si>
+  <si>
+    <t>What is the data type of the tags in the flow computers table?</t>
+  </si>
+  <si>
+    <t>What is the data type of the meter streams in the meter streams table?</t>
+  </si>
+  <si>
+    <t>What columns are present in the flow computers table?</t>
+  </si>
+  <si>
+    <t>What is the structure of the measurement systems table?</t>
+  </si>
+  <si>
+    <t>What defines a flowboss in the database?</t>
+  </si>
+  <si>
+    <t>Are there any relationships between system tags and flow computers?</t>
+  </si>
+  <si>
+    <t>What other relevant tags are associated with flow computers?</t>
+  </si>
+  <si>
+    <t>What is the relationship between flow computers and measurement systems?</t>
+  </si>
+  <si>
+    <t>What columns are available in the measurement systems table?</t>
+  </si>
+  <si>
+    <t>Are there any tags associated with flow computers?</t>
+  </si>
+  <si>
+    <t>What is the structure of the data related to computer types?</t>
+  </si>
+  <si>
+    <t>What tables contain information about computers?</t>
+  </si>
+  <si>
+    <t>What columns are available in the computer table?</t>
+  </si>
+  <si>
+    <t>How are computers associated with measurement systems?</t>
+  </si>
+  <si>
+    <t>What is the structure of the measurement system table?</t>
+  </si>
+  <si>
+    <t>What columns are available for system tags?</t>
+  </si>
+  <si>
+    <t>What columns are available for computer tags?</t>
+  </si>
+  <si>
+    <t>Are there any relationships between system tags and computers?</t>
+  </si>
+  <si>
+    <t>What are the columns in the computer_reports table?</t>
+  </si>
+  <si>
+    <t>What type of data is stored in the tag column?</t>
+  </si>
+  <si>
+    <t>What type of data is stored in the report_date column?</t>
+  </si>
+  <si>
+    <t>What type of data is stored in the details column?</t>
+  </si>
+  <si>
+    <t>Are there any constraints or indexes on the computer_reports table?</t>
+  </si>
+  <si>
+    <t>How is the report_date formatted in the database?</t>
+  </si>
+  <si>
+    <t>Are there any relationships between computer_reports and other tables?</t>
+  </si>
+  <si>
+    <t>What columns are available in the table related to computer tags?</t>
+  </si>
+  <si>
+    <t>Is there a table that logs daily reports for computer tags?</t>
+  </si>
+  <si>
+    <t>What is the structure of the daily report table?</t>
+  </si>
+  <si>
+    <t>Are there any filters or conditions for the computer tag FQI-EMED-3138.12-050?</t>
+  </si>
+  <si>
+    <t>What date formats are used in the database?</t>
+  </si>
+  <si>
+    <t>Are there any relationships between the computer tag table and other tables?</t>
+  </si>
+  <si>
+    <t>What tables contain usage statistics for computers?</t>
+  </si>
+  <si>
+    <t>What columns are available in the usage statistics tables?</t>
+  </si>
+  <si>
+    <t>Is there a specific table for daily usage statistics?</t>
+  </si>
+  <si>
+    <t>What is the format of the date column in the usage statistics table?</t>
+  </si>
+  <si>
+    <t>Are there any filters or conditions needed for the computer tag FQI-EMED-3138.12-050?</t>
+  </si>
+  <si>
+    <t>What is the relationship between the computer tags and usage statistics?</t>
+  </si>
+  <si>
+    <t>Are there any existing reports for daily usage statistics?</t>
+  </si>
+  <si>
+    <t>What tables contain report information?</t>
+  </si>
+  <si>
+    <t>What is the structure of the report table?</t>
+  </si>
+  <si>
+    <t>What columns are available in the report table?</t>
+  </si>
+  <si>
+    <t>How are reports associated with computer tags?</t>
+  </si>
+  <si>
+    <t>What is the format of the computer tag in the database?</t>
+  </si>
+  <si>
+    <t>Are there any filters or conditions for retrieving the latest report?</t>
+  </si>
+  <si>
+    <t>What is the date format used for report dates?</t>
+  </si>
+  <si>
+    <t>Is there a specific table for daily reports?</t>
+  </si>
+  <si>
+    <t>Are there any relationships between the computer tags and daily reports?</t>
+  </si>
+  <si>
+    <t>What filters can be applied to retrieve data for a specific date?</t>
+  </si>
+  <si>
+    <t>What additional information is relevant for the computer tag FQI-EMED-3138.12-050?</t>
+  </si>
+  <si>
+    <t>What columns are available in the uncertainty results table?</t>
+  </si>
+  <si>
+    <t>How is the tag EMED-3102-02-010 related to uncertainty results?</t>
+  </si>
+  <si>
+    <t>What is the data type of the tag column?</t>
+  </si>
+  <si>
+    <t>Are there any filters or conditions typically applied to retrieve uncertainty results?</t>
+  </si>
+  <si>
+    <t>What is the structure of the most recent uncertainty result?</t>
+  </si>
+  <si>
+    <t>Are there any indexes on the uncertainty results table that could optimize the query?</t>
+  </si>
+  <si>
+    <t>How is uncertainty data related to measurement systems?</t>
+  </si>
+  <si>
+    <t>What is the structure of the uncertainty results table?</t>
+  </si>
+  <si>
+    <t>Are there any filters or conditions for retrieving uncertainty results?</t>
+  </si>
+  <si>
+    <t>Is there a specific way to query by measurement system tags?</t>
+  </si>
+  <si>
+    <t>What tables contain information about flow rate uncertainty?</t>
+  </si>
+  <si>
+    <t>What columns are available in the table related to curve_OF_UNCERTAINTY?</t>
+  </si>
+  <si>
+    <t>How is the certificate number EMED-010-1 stored in the database?</t>
+  </si>
+  <si>
+    <t>Are there any relationships between flow rate uncertainty and certificate numbers?</t>
+  </si>
+  <si>
+    <t>What is the data type of the flow rate uncertainty fingerprint points?</t>
+  </si>
+  <si>
+    <t>Are there any specific filters or conditions needed to retrieve the uncertainty points?</t>
+  </si>
+  <si>
+    <t>What is the structure of the data returned for flow rate uncertainty?</t>
+  </si>
+  <si>
+    <t>What columns are available in the table for measurement system EMED-3102-02-010?</t>
+  </si>
+  <si>
+    <t>How is the date stored in the database for measurements?</t>
+  </si>
+  <si>
+    <t>What is the data type of static pressure in the measurement system?</t>
+  </si>
+  <si>
+    <t>What is the data type of differential pressure in the measurement system?</t>
+  </si>
+  <si>
+    <t>What is the data type of temperature in the measurement system?</t>
+  </si>
+  <si>
+    <t>What is the data type of flow rate volume in the measurement system?</t>
+  </si>
+  <si>
+    <t>This text talks about equipment calibration, a process that ensures measurement accuracy by correcting deviations. Calibration is performed periodically with two main cycles: as-found (pre-adjustment) and as-left (post-adjustment), and includes uncertainty of the magnitude, which affects the margin of error in measurements.</t>
   </si>
 </sst>
 </file>
@@ -2166,10 +2668,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C188"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2179,7 +2681,7 @@
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>226</v>
       </c>
@@ -2189,8 +2691,11 @@
       <c r="C1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -2201,7 +2706,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -2212,7 +2717,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -2223,7 +2728,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -2234,7 +2739,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -2245,7 +2750,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -2256,7 +2761,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -2267,7 +2772,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -2278,7 +2783,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -2289,7 +2794,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -2300,7 +2805,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -2311,7 +2816,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -2322,7 +2827,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -2333,7 +2838,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -2344,7 +2849,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -4254,21 +4759,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C6AAD4-06B0-442F-8B22-9E2FEAE61891}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="54.44140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.5546875" style="1"/>
+    <col min="4" max="4" width="42.88671875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>235</v>
       </c>
@@ -4278,8 +4784,11 @@
       <c r="C1" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>243</v>
       </c>
@@ -4289,8 +4798,11 @@
       <c r="C2" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>244</v>
       </c>
@@ -4300,8 +4812,11 @@
       <c r="C3" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>245</v>
       </c>
@@ -4311,8 +4826,11 @@
       <c r="C4" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>246</v>
       </c>
@@ -4322,8 +4840,11 @@
       <c r="C5" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>247</v>
       </c>
@@ -4333,8 +4854,11 @@
       <c r="C6" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>248</v>
       </c>
@@ -4344,8 +4868,11 @@
       <c r="C7" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>249</v>
       </c>
@@ -4355,8 +4882,11 @@
       <c r="C8" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>250</v>
       </c>
@@ -4366,8 +4896,11 @@
       <c r="C9" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>251</v>
       </c>
@@ -4376,10 +4909,1553 @@
       </c>
       <c r="C10" s="2" t="s">
         <v>234</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5011D4B6-3E39-49FF-9C56-25E7030DB4DD}">
+  <dimension ref="A1:B190"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="62.21875" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>282</v>
+      </c>
+      <c r="B17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>274</v>
+      </c>
+      <c r="B23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>276</v>
+      </c>
+      <c r="B25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>278</v>
+      </c>
+      <c r="B27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>284</v>
+      </c>
+      <c r="B29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>285</v>
+      </c>
+      <c r="B33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>286</v>
+      </c>
+      <c r="B34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>287</v>
+      </c>
+      <c r="B35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>288</v>
+      </c>
+      <c r="B36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>289</v>
+      </c>
+      <c r="B37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>290</v>
+      </c>
+      <c r="B38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>291</v>
+      </c>
+      <c r="B39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>292</v>
+      </c>
+      <c r="B40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>293</v>
+      </c>
+      <c r="B41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>294</v>
+      </c>
+      <c r="B42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>295</v>
+      </c>
+      <c r="B43" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>296</v>
+      </c>
+      <c r="B44" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>297</v>
+      </c>
+      <c r="B45" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>298</v>
+      </c>
+      <c r="B46" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>299</v>
+      </c>
+      <c r="B47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>300</v>
+      </c>
+      <c r="B48" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>301</v>
+      </c>
+      <c r="B49" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>302</v>
+      </c>
+      <c r="B50" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>303</v>
+      </c>
+      <c r="B51" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>304</v>
+      </c>
+      <c r="B52" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>305</v>
+      </c>
+      <c r="B53" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>306</v>
+      </c>
+      <c r="B55" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>307</v>
+      </c>
+      <c r="B56" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>308</v>
+      </c>
+      <c r="B57" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>309</v>
+      </c>
+      <c r="B58" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>310</v>
+      </c>
+      <c r="B59" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>311</v>
+      </c>
+      <c r="B60" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>312</v>
+      </c>
+      <c r="B61" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>313</v>
+      </c>
+      <c r="B62" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>314</v>
+      </c>
+      <c r="B63" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>315</v>
+      </c>
+      <c r="B64" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>316</v>
+      </c>
+      <c r="B65" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>317</v>
+      </c>
+      <c r="B66" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>318</v>
+      </c>
+      <c r="B67" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>319</v>
+      </c>
+      <c r="B69" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>320</v>
+      </c>
+      <c r="B70" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>321</v>
+      </c>
+      <c r="B71" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>316</v>
+      </c>
+      <c r="B72" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>322</v>
+      </c>
+      <c r="B73" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>323</v>
+      </c>
+      <c r="B74" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>324</v>
+      </c>
+      <c r="B75" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>325</v>
+      </c>
+      <c r="B76" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>326</v>
+      </c>
+      <c r="B77" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>327</v>
+      </c>
+      <c r="B78" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>328</v>
+      </c>
+      <c r="B79" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>329</v>
+      </c>
+      <c r="B80" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>330</v>
+      </c>
+      <c r="B81" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>331</v>
+      </c>
+      <c r="B82" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>332</v>
+      </c>
+      <c r="B83" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>333</v>
+      </c>
+      <c r="B84" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>334</v>
+      </c>
+      <c r="B85" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>316</v>
+      </c>
+      <c r="B86" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>317</v>
+      </c>
+      <c r="B87" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>335</v>
+      </c>
+      <c r="B88" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>336</v>
+      </c>
+      <c r="B89" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>337</v>
+      </c>
+      <c r="B90" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>338</v>
+      </c>
+      <c r="B91" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>339</v>
+      </c>
+      <c r="B92" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>274</v>
+      </c>
+      <c r="B93" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>215</v>
+      </c>
+      <c r="B94" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>340</v>
+      </c>
+      <c r="B95" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>341</v>
+      </c>
+      <c r="B96" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>342</v>
+      </c>
+      <c r="B97" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>343</v>
+      </c>
+      <c r="B98" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>278</v>
+      </c>
+      <c r="B99" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>344</v>
+      </c>
+      <c r="B100" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>345</v>
+      </c>
+      <c r="B101" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>346</v>
+      </c>
+      <c r="B102" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>347</v>
+      </c>
+      <c r="B103" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>348</v>
+      </c>
+      <c r="B104" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>349</v>
+      </c>
+      <c r="B105" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>350</v>
+      </c>
+      <c r="B106" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>351</v>
+      </c>
+      <c r="B108" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>352</v>
+      </c>
+      <c r="B110" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>353</v>
+      </c>
+      <c r="B111" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>354</v>
+      </c>
+      <c r="B112" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>355</v>
+      </c>
+      <c r="B113" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>345</v>
+      </c>
+      <c r="B115" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>356</v>
+      </c>
+      <c r="B116" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>137</v>
+      </c>
+      <c r="B117" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>357</v>
+      </c>
+      <c r="B118" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>358</v>
+      </c>
+      <c r="B119" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>359</v>
+      </c>
+      <c r="B120" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>360</v>
+      </c>
+      <c r="B121" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>361</v>
+      </c>
+      <c r="B122" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>362</v>
+      </c>
+      <c r="B123" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>363</v>
+      </c>
+      <c r="B124" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>364</v>
+      </c>
+      <c r="B125" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>365</v>
+      </c>
+      <c r="B126" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>366</v>
+      </c>
+      <c r="B127" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>367</v>
+      </c>
+      <c r="B128" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>368</v>
+      </c>
+      <c r="B129" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>369</v>
+      </c>
+      <c r="B130" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>370</v>
+      </c>
+      <c r="B131" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>371</v>
+      </c>
+      <c r="B132" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>372</v>
+      </c>
+      <c r="B133" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>373</v>
+      </c>
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>108</v>
+      </c>
+      <c r="B135" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>374</v>
+      </c>
+      <c r="B136" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>375</v>
+      </c>
+      <c r="B137" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>376</v>
+      </c>
+      <c r="B138" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>377</v>
+      </c>
+      <c r="B139" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>378</v>
+      </c>
+      <c r="B140" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>379</v>
+      </c>
+      <c r="B141" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>380</v>
+      </c>
+      <c r="B142" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>381</v>
+      </c>
+      <c r="B143" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>382</v>
+      </c>
+      <c r="B144" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>383</v>
+      </c>
+      <c r="B145" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>384</v>
+      </c>
+      <c r="B146" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>385</v>
+      </c>
+      <c r="B147" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>386</v>
+      </c>
+      <c r="B148" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>387</v>
+      </c>
+      <c r="B149" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>388</v>
+      </c>
+      <c r="B150" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>389</v>
+      </c>
+      <c r="B151" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>390</v>
+      </c>
+      <c r="B152" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>391</v>
+      </c>
+      <c r="B153" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>392</v>
+      </c>
+      <c r="B154" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>393</v>
+      </c>
+      <c r="B155" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>108</v>
+      </c>
+      <c r="B156" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>374</v>
+      </c>
+      <c r="B157" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>394</v>
+      </c>
+      <c r="B158" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>376</v>
+      </c>
+      <c r="B159" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>395</v>
+      </c>
+      <c r="B160" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>396</v>
+      </c>
+      <c r="B161" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>397</v>
+      </c>
+      <c r="B162" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>102</v>
+      </c>
+      <c r="B163" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>398</v>
+      </c>
+      <c r="B164" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>399</v>
+      </c>
+      <c r="B165" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>400</v>
+      </c>
+      <c r="B166" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>401</v>
+      </c>
+      <c r="B167" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>402</v>
+      </c>
+      <c r="B168" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>403</v>
+      </c>
+      <c r="B169" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>137</v>
+      </c>
+      <c r="B170" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>357</v>
+      </c>
+      <c r="B171" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>404</v>
+      </c>
+      <c r="B172" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>405</v>
+      </c>
+      <c r="B173" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>406</v>
+      </c>
+      <c r="B174" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>378</v>
+      </c>
+      <c r="B175" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>407</v>
+      </c>
+      <c r="B176" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>408</v>
+      </c>
+      <c r="B177" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>409</v>
+      </c>
+      <c r="B178" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>410</v>
+      </c>
+      <c r="B179" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>411</v>
+      </c>
+      <c r="B180" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>412</v>
+      </c>
+      <c r="B181" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>413</v>
+      </c>
+      <c r="B182" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>414</v>
+      </c>
+      <c r="B183" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>137</v>
+      </c>
+      <c r="B184" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>415</v>
+      </c>
+      <c r="B185" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>416</v>
+      </c>
+      <c r="B186" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>417</v>
+      </c>
+      <c r="B187" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>418</v>
+      </c>
+      <c r="B188" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>419</v>
+      </c>
+      <c r="B189" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>420</v>
+      </c>
+      <c r="B190" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sheets/datasets.xlsx
+++ b/sheets/datasets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauth\OneDrive\Desktop\LLM Assistant File - V2\fine_tuning\embeddings\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39744944-763A-4B50-917B-59E71F78BBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E0B696-ECEF-42AA-801D-0AABCB3AD955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,26 @@
     <sheet name="keywords" sheetId="1" r:id="rId1"/>
     <sheet name="sub_queries" sheetId="2" r:id="rId2"/>
     <sheet name="chunks" sheetId="3" r:id="rId3"/>
-    <sheet name="openia" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="266">
   <si>
     <t>measurement system</t>
   </si>
@@ -967,474 +979,6 @@
   </si>
   <si>
     <t>This text talks about uncertainty, which measures the potential error or margin of error in measurements. It explains two types: uncertainty of magnitudes (specific variables like temperature or pressure) and uncertainty of the measurement system (overall flow measurement), with both types stored separately in the database.</t>
-  </si>
-  <si>
-    <t>provider</t>
-  </si>
-  <si>
-    <t>What are the columns in the pressure_data table?</t>
-  </si>
-  <si>
-    <t>openai</t>
-  </si>
-  <si>
-    <t>What is the data type of the uncertainty_value column?</t>
-  </si>
-  <si>
-    <t>What is the format of the timestamp column?</t>
-  </si>
-  <si>
-    <t>Are there any indexes on the pressure_data table?</t>
-  </si>
-  <si>
-    <t>What are the common tags used in the pressure_data table?</t>
-  </si>
-  <si>
-    <t>How is the uncertainty_value calculated or derived?</t>
-  </si>
-  <si>
-    <t>Are there any constraints on the pressure_data table?</t>
-  </si>
-  <si>
-    <t>What tables are related to calibration points?</t>
-  </si>
-  <si>
-    <t>What columns are present in the calibration points table?</t>
-  </si>
-  <si>
-    <t>How is the calibration number stored in the database?</t>
-  </si>
-  <si>
-    <t>Are there any relationships between calibration points and other tables?</t>
-  </si>
-  <si>
-    <t>What is the data type of the calibration number?</t>
-  </si>
-  <si>
-    <t>Are there any filters or conditions commonly used with calibration points?</t>
-  </si>
-  <si>
-    <t>What is the typical structure of a query retrieving calibration points?</t>
-  </si>
-  <si>
-    <t>What are the main tables related to pressure data?</t>
-  </si>
-  <si>
-    <t>What columns exist in the pressure_data table?</t>
-  </si>
-  <si>
-    <t>Are there any constraints on the calibration number field?</t>
-  </si>
-  <si>
-    <t>What is the typical query structure to retrieve calibration points?</t>
-  </si>
-  <si>
-    <t>What columns are available in the equipment table?</t>
-  </si>
-  <si>
-    <t>Are there any relationships between equipment and calibration points?</t>
-  </si>
-  <si>
-    <t>What is the data type of the equipment tag?</t>
-  </si>
-  <si>
-    <t>Are there any filters or conditions typically used for retrieving calibration points?</t>
-  </si>
-  <si>
-    <t>What are the columns in the equipment table?</t>
-  </si>
-  <si>
-    <t>What are the columns in the equipment_type table?</t>
-  </si>
-  <si>
-    <t>What are the columns in the equipment_classification table?</t>
-  </si>
-  <si>
-    <t>What are the relationships between equipment and equipment_type?</t>
-  </si>
-  <si>
-    <t>What are the relationships between equipment and equipment_classification?</t>
-  </si>
-  <si>
-    <t>What is the data type of the tag column in the equipment table?</t>
-  </si>
-  <si>
-    <t>Are there any constraints on the tag column in the equipment table?</t>
-  </si>
-  <si>
-    <t>What tables contain information about equipment classes?</t>
-  </si>
-  <si>
-    <t>What fields are available in the equipment table?</t>
-  </si>
-  <si>
-    <t>How is the equipment type linked to the equipment tag?</t>
-  </si>
-  <si>
-    <t>What is the relationship between equipment and systems?</t>
-  </si>
-  <si>
-    <t>Are there any specific filters for secondary equipment?</t>
-  </si>
-  <si>
-    <t>What is the structure of the system table?</t>
-  </si>
-  <si>
-    <t>How are serial numbers stored in the database?</t>
-  </si>
-  <si>
-    <t>What tables store equipment information?</t>
-  </si>
-  <si>
-    <t>What columns are present in the equipment table?</t>
-  </si>
-  <si>
-    <t>How is calibration data related to equipment?</t>
-  </si>
-  <si>
-    <t>What is the data type of the calibration date column?</t>
-  </si>
-  <si>
-    <t>Are there any constraints on the calibration date?</t>
-  </si>
-  <si>
-    <t>How can I filter calibration records by equipment tag?</t>
-  </si>
-  <si>
-    <t>What tables contain information about equipment serials?</t>
-  </si>
-  <si>
-    <t>What variables can each equipment read?</t>
-  </si>
-  <si>
-    <t>How is the tag &amp;&amp;&amp;EMED-3138.11-128&amp;&amp;&amp; related to equipment?</t>
-  </si>
-  <si>
-    <t>What is the relationship between equipment and their serials?</t>
-  </si>
-  <si>
-    <t>Are there any specific attributes associated with the tag &amp;&amp;&amp;EMED-3138.11-128&amp;&amp;&amp;?</t>
-  </si>
-  <si>
-    <t>What is the structure of the data related to equipment in the database?</t>
-  </si>
-  <si>
-    <t>Are there any constraints or filters related to the equipment data?</t>
-  </si>
-  <si>
-    <t>What tables store uncertainty reports?</t>
-  </si>
-  <si>
-    <t>What columns are present in the uncertainty reports table?</t>
-  </si>
-  <si>
-    <t>How is temperature data related to equipment tags?</t>
-  </si>
-  <si>
-    <t>How can I filter uncertainty reports by equipment tag?</t>
-  </si>
-  <si>
-    <t>What is the format of the date column in the uncertainty reports?</t>
-  </si>
-  <si>
-    <t>How can I retrieve the latest report for a specific equipment tag?</t>
-  </si>
-  <si>
-    <t>What columns are available in the uncertainty reports table?</t>
-  </si>
-  <si>
-    <t>How is temperature recorded in the database?</t>
-  </si>
-  <si>
-    <t>How is differential pressure recorded in the database?</t>
-  </si>
-  <si>
-    <t>What is the relationship between tags and uncertainty reports?</t>
-  </si>
-  <si>
-    <t>How can I filter reports by the tag EMED-3138.12-050?</t>
-  </si>
-  <si>
-    <t>What is the structure of the latest reports in the database?</t>
-  </si>
-  <si>
-    <t>What are the columns in the uncertainty_reports table?</t>
-  </si>
-  <si>
-    <t>What is the data type of the report_date column?</t>
-  </si>
-  <si>
-    <t>How is the equipment_tag column structured?</t>
-  </si>
-  <si>
-    <t>Are there any indexes on the uncertainty_reports table?</t>
-  </si>
-  <si>
-    <t>What is the typical format of report_details?</t>
-  </si>
-  <si>
-    <t>Are there any constraints on the equipment_tag column?</t>
-  </si>
-  <si>
-    <t>What is the most recent report_date for equipment with tag EMED-3138.12-050-DPT?</t>
-  </si>
-  <si>
-    <t>How is temperature data stored in the database?</t>
-  </si>
-  <si>
-    <t>What is the structure of the tag EMED-3138.12-050?</t>
-  </si>
-  <si>
-    <t>Are there any relationships between uncertainty reports and temperature data?</t>
-  </si>
-  <si>
-    <t>How can I filter uncertainty reports by tag?</t>
-  </si>
-  <si>
-    <t>What is the format of the last report retrieval?</t>
-  </si>
-  <si>
-    <t>How is the calibration number structured in the database?</t>
-  </si>
-  <si>
-    <t>Are there any foreign keys related to calibration points?</t>
-  </si>
-  <si>
-    <t>What is the relationship between calibration points and calibrations?</t>
-  </si>
-  <si>
-    <t>Are there any filters or conditions commonly used with calibration queries?</t>
-  </si>
-  <si>
-    <t>What tables are related to flow computers?</t>
-  </si>
-  <si>
-    <t>What columns are available in the flow computers table?</t>
-  </si>
-  <si>
-    <t>What tables are related to meter streams?</t>
-  </si>
-  <si>
-    <t>What columns are available in the meter streams table?</t>
-  </si>
-  <si>
-    <t>How are flow computers and meter streams linked?</t>
-  </si>
-  <si>
-    <t>What is the data type of the tags in the flow computers table?</t>
-  </si>
-  <si>
-    <t>What is the data type of the meter streams in the meter streams table?</t>
-  </si>
-  <si>
-    <t>What columns are present in the flow computers table?</t>
-  </si>
-  <si>
-    <t>What is the structure of the measurement systems table?</t>
-  </si>
-  <si>
-    <t>What defines a flowboss in the database?</t>
-  </si>
-  <si>
-    <t>Are there any relationships between system tags and flow computers?</t>
-  </si>
-  <si>
-    <t>What other relevant tags are associated with flow computers?</t>
-  </si>
-  <si>
-    <t>What is the relationship between flow computers and measurement systems?</t>
-  </si>
-  <si>
-    <t>What columns are available in the measurement systems table?</t>
-  </si>
-  <si>
-    <t>Are there any tags associated with flow computers?</t>
-  </si>
-  <si>
-    <t>What is the structure of the data related to computer types?</t>
-  </si>
-  <si>
-    <t>What tables contain information about computers?</t>
-  </si>
-  <si>
-    <t>What columns are available in the computer table?</t>
-  </si>
-  <si>
-    <t>How are computers associated with measurement systems?</t>
-  </si>
-  <si>
-    <t>What is the structure of the measurement system table?</t>
-  </si>
-  <si>
-    <t>What columns are available for system tags?</t>
-  </si>
-  <si>
-    <t>What columns are available for computer tags?</t>
-  </si>
-  <si>
-    <t>Are there any relationships between system tags and computers?</t>
-  </si>
-  <si>
-    <t>What are the columns in the computer_reports table?</t>
-  </si>
-  <si>
-    <t>What type of data is stored in the tag column?</t>
-  </si>
-  <si>
-    <t>What type of data is stored in the report_date column?</t>
-  </si>
-  <si>
-    <t>What type of data is stored in the details column?</t>
-  </si>
-  <si>
-    <t>Are there any constraints or indexes on the computer_reports table?</t>
-  </si>
-  <si>
-    <t>How is the report_date formatted in the database?</t>
-  </si>
-  <si>
-    <t>Are there any relationships between computer_reports and other tables?</t>
-  </si>
-  <si>
-    <t>What columns are available in the table related to computer tags?</t>
-  </si>
-  <si>
-    <t>Is there a table that logs daily reports for computer tags?</t>
-  </si>
-  <si>
-    <t>What is the structure of the daily report table?</t>
-  </si>
-  <si>
-    <t>Are there any filters or conditions for the computer tag FQI-EMED-3138.12-050?</t>
-  </si>
-  <si>
-    <t>What date formats are used in the database?</t>
-  </si>
-  <si>
-    <t>Are there any relationships between the computer tag table and other tables?</t>
-  </si>
-  <si>
-    <t>What tables contain usage statistics for computers?</t>
-  </si>
-  <si>
-    <t>What columns are available in the usage statistics tables?</t>
-  </si>
-  <si>
-    <t>Is there a specific table for daily usage statistics?</t>
-  </si>
-  <si>
-    <t>What is the format of the date column in the usage statistics table?</t>
-  </si>
-  <si>
-    <t>Are there any filters or conditions needed for the computer tag FQI-EMED-3138.12-050?</t>
-  </si>
-  <si>
-    <t>What is the relationship between the computer tags and usage statistics?</t>
-  </si>
-  <si>
-    <t>Are there any existing reports for daily usage statistics?</t>
-  </si>
-  <si>
-    <t>What tables contain report information?</t>
-  </si>
-  <si>
-    <t>What is the structure of the report table?</t>
-  </si>
-  <si>
-    <t>What columns are available in the report table?</t>
-  </si>
-  <si>
-    <t>How are reports associated with computer tags?</t>
-  </si>
-  <si>
-    <t>What is the format of the computer tag in the database?</t>
-  </si>
-  <si>
-    <t>Are there any filters or conditions for retrieving the latest report?</t>
-  </si>
-  <si>
-    <t>What is the date format used for report dates?</t>
-  </si>
-  <si>
-    <t>Is there a specific table for daily reports?</t>
-  </si>
-  <si>
-    <t>Are there any relationships between the computer tags and daily reports?</t>
-  </si>
-  <si>
-    <t>What filters can be applied to retrieve data for a specific date?</t>
-  </si>
-  <si>
-    <t>What additional information is relevant for the computer tag FQI-EMED-3138.12-050?</t>
-  </si>
-  <si>
-    <t>What columns are available in the uncertainty results table?</t>
-  </si>
-  <si>
-    <t>How is the tag EMED-3102-02-010 related to uncertainty results?</t>
-  </si>
-  <si>
-    <t>What is the data type of the tag column?</t>
-  </si>
-  <si>
-    <t>Are there any filters or conditions typically applied to retrieve uncertainty results?</t>
-  </si>
-  <si>
-    <t>What is the structure of the most recent uncertainty result?</t>
-  </si>
-  <si>
-    <t>Are there any indexes on the uncertainty results table that could optimize the query?</t>
-  </si>
-  <si>
-    <t>How is uncertainty data related to measurement systems?</t>
-  </si>
-  <si>
-    <t>What is the structure of the uncertainty results table?</t>
-  </si>
-  <si>
-    <t>Are there any filters or conditions for retrieving uncertainty results?</t>
-  </si>
-  <si>
-    <t>Is there a specific way to query by measurement system tags?</t>
-  </si>
-  <si>
-    <t>What tables contain information about flow rate uncertainty?</t>
-  </si>
-  <si>
-    <t>What columns are available in the table related to curve_OF_UNCERTAINTY?</t>
-  </si>
-  <si>
-    <t>How is the certificate number EMED-010-1 stored in the database?</t>
-  </si>
-  <si>
-    <t>Are there any relationships between flow rate uncertainty and certificate numbers?</t>
-  </si>
-  <si>
-    <t>What is the data type of the flow rate uncertainty fingerprint points?</t>
-  </si>
-  <si>
-    <t>Are there any specific filters or conditions needed to retrieve the uncertainty points?</t>
-  </si>
-  <si>
-    <t>What is the structure of the data returned for flow rate uncertainty?</t>
-  </si>
-  <si>
-    <t>What columns are available in the table for measurement system EMED-3102-02-010?</t>
-  </si>
-  <si>
-    <t>How is the date stored in the database for measurements?</t>
-  </si>
-  <si>
-    <t>What is the data type of static pressure in the measurement system?</t>
-  </si>
-  <si>
-    <t>What is the data type of differential pressure in the measurement system?</t>
-  </si>
-  <si>
-    <t>What is the data type of temperature in the measurement system?</t>
-  </si>
-  <si>
-    <t>What is the data type of flow rate volume in the measurement system?</t>
   </si>
   <si>
     <t>This text talks about equipment calibration, a process that ensures measurement accuracy by correcting deviations. Calibration is performed periodically with two main cycles: as-found (pre-adjustment) and as-left (post-adjustment), and includes uncertainty of the magnitude, which affects the margin of error in measurements.</t>
@@ -1772,7 +1316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A151" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -2670,15 +2214,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A180" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.5546875" customWidth="1"/>
+    <col min="1" max="1" width="82.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4761,13 +4305,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C6AAD4-06B0-442F-8B22-9E2FEAE61891}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="40.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="54.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.88671875" style="2" customWidth="1"/>
@@ -4897,7 +4441,7 @@
         <v>233</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>421</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -4919,1543 +4463,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5011D4B6-3E39-49FF-9C56-25E7030DB4DD}">
-  <dimension ref="A1:B190"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="62.21875" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>271</v>
-      </c>
-      <c r="B6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>273</v>
-      </c>
-      <c r="B8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>274</v>
-      </c>
-      <c r="B9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>275</v>
-      </c>
-      <c r="B10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>276</v>
-      </c>
-      <c r="B11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>277</v>
-      </c>
-      <c r="B12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>278</v>
-      </c>
-      <c r="B13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>279</v>
-      </c>
-      <c r="B14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>280</v>
-      </c>
-      <c r="B15" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>281</v>
-      </c>
-      <c r="B16" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>282</v>
-      </c>
-      <c r="B17" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>268</v>
-      </c>
-      <c r="B18" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>269</v>
-      </c>
-      <c r="B19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>270</v>
-      </c>
-      <c r="B20" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>271</v>
-      </c>
-      <c r="B21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>272</v>
-      </c>
-      <c r="B22" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>274</v>
-      </c>
-      <c r="B23" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>275</v>
-      </c>
-      <c r="B24" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>276</v>
-      </c>
-      <c r="B25" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>277</v>
-      </c>
-      <c r="B26" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>278</v>
-      </c>
-      <c r="B27" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>283</v>
-      </c>
-      <c r="B28" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>284</v>
-      </c>
-      <c r="B29" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>181</v>
-      </c>
-      <c r="B30" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>203</v>
-      </c>
-      <c r="B32" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>285</v>
-      </c>
-      <c r="B33" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>286</v>
-      </c>
-      <c r="B34" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>287</v>
-      </c>
-      <c r="B35" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>288</v>
-      </c>
-      <c r="B36" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>289</v>
-      </c>
-      <c r="B37" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>290</v>
-      </c>
-      <c r="B38" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>291</v>
-      </c>
-      <c r="B39" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B40" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>293</v>
-      </c>
-      <c r="B41" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>294</v>
-      </c>
-      <c r="B42" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>295</v>
-      </c>
-      <c r="B43" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>296</v>
-      </c>
-      <c r="B44" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>297</v>
-      </c>
-      <c r="B45" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>298</v>
-      </c>
-      <c r="B46" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>299</v>
-      </c>
-      <c r="B47" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>300</v>
-      </c>
-      <c r="B48" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>301</v>
-      </c>
-      <c r="B49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>302</v>
-      </c>
-      <c r="B50" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>303</v>
-      </c>
-      <c r="B51" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>304</v>
-      </c>
-      <c r="B52" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>305</v>
-      </c>
-      <c r="B53" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>306</v>
-      </c>
-      <c r="B55" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>307</v>
-      </c>
-      <c r="B56" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>308</v>
-      </c>
-      <c r="B57" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>309</v>
-      </c>
-      <c r="B58" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>310</v>
-      </c>
-      <c r="B59" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>311</v>
-      </c>
-      <c r="B60" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>312</v>
-      </c>
-      <c r="B61" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>313</v>
-      </c>
-      <c r="B62" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>314</v>
-      </c>
-      <c r="B63" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>315</v>
-      </c>
-      <c r="B64" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>316</v>
-      </c>
-      <c r="B65" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>317</v>
-      </c>
-      <c r="B66" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>318</v>
-      </c>
-      <c r="B67" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>88</v>
-      </c>
-      <c r="B68" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>319</v>
-      </c>
-      <c r="B69" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>320</v>
-      </c>
-      <c r="B70" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>321</v>
-      </c>
-      <c r="B71" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>316</v>
-      </c>
-      <c r="B72" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>322</v>
-      </c>
-      <c r="B73" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>323</v>
-      </c>
-      <c r="B74" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>324</v>
-      </c>
-      <c r="B75" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>325</v>
-      </c>
-      <c r="B76" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>326</v>
-      </c>
-      <c r="B77" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>327</v>
-      </c>
-      <c r="B78" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>328</v>
-      </c>
-      <c r="B79" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>329</v>
-      </c>
-      <c r="B80" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>330</v>
-      </c>
-      <c r="B81" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>331</v>
-      </c>
-      <c r="B82" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>332</v>
-      </c>
-      <c r="B83" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>333</v>
-      </c>
-      <c r="B84" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>334</v>
-      </c>
-      <c r="B85" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>316</v>
-      </c>
-      <c r="B86" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>317</v>
-      </c>
-      <c r="B87" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>335</v>
-      </c>
-      <c r="B88" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>336</v>
-      </c>
-      <c r="B89" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>337</v>
-      </c>
-      <c r="B90" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>338</v>
-      </c>
-      <c r="B91" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>339</v>
-      </c>
-      <c r="B92" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>274</v>
-      </c>
-      <c r="B93" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>215</v>
-      </c>
-      <c r="B94" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>340</v>
-      </c>
-      <c r="B95" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>341</v>
-      </c>
-      <c r="B96" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>342</v>
-      </c>
-      <c r="B97" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>343</v>
-      </c>
-      <c r="B98" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>278</v>
-      </c>
-      <c r="B99" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>344</v>
-      </c>
-      <c r="B100" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>345</v>
-      </c>
-      <c r="B101" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>346</v>
-      </c>
-      <c r="B102" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>347</v>
-      </c>
-      <c r="B103" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>348</v>
-      </c>
-      <c r="B104" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>349</v>
-      </c>
-      <c r="B105" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>350</v>
-      </c>
-      <c r="B106" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>136</v>
-      </c>
-      <c r="B107" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>351</v>
-      </c>
-      <c r="B108" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>219</v>
-      </c>
-      <c r="B109" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>352</v>
-      </c>
-      <c r="B110" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>353</v>
-      </c>
-      <c r="B111" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>354</v>
-      </c>
-      <c r="B112" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>355</v>
-      </c>
-      <c r="B113" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>136</v>
-      </c>
-      <c r="B114" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>345</v>
-      </c>
-      <c r="B115" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>356</v>
-      </c>
-      <c r="B116" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>137</v>
-      </c>
-      <c r="B117" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>357</v>
-      </c>
-      <c r="B118" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>358</v>
-      </c>
-      <c r="B119" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>359</v>
-      </c>
-      <c r="B120" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>360</v>
-      </c>
-      <c r="B121" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>361</v>
-      </c>
-      <c r="B122" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>362</v>
-      </c>
-      <c r="B123" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>363</v>
-      </c>
-      <c r="B124" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>364</v>
-      </c>
-      <c r="B125" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>365</v>
-      </c>
-      <c r="B126" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>366</v>
-      </c>
-      <c r="B127" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>367</v>
-      </c>
-      <c r="B128" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>368</v>
-      </c>
-      <c r="B129" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>369</v>
-      </c>
-      <c r="B130" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>370</v>
-      </c>
-      <c r="B131" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>371</v>
-      </c>
-      <c r="B132" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>372</v>
-      </c>
-      <c r="B133" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>373</v>
-      </c>
-      <c r="B134" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>108</v>
-      </c>
-      <c r="B135" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>374</v>
-      </c>
-      <c r="B136" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>375</v>
-      </c>
-      <c r="B137" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>376</v>
-      </c>
-      <c r="B138" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>377</v>
-      </c>
-      <c r="B139" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>378</v>
-      </c>
-      <c r="B140" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>379</v>
-      </c>
-      <c r="B141" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>380</v>
-      </c>
-      <c r="B142" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>381</v>
-      </c>
-      <c r="B143" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>382</v>
-      </c>
-      <c r="B144" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>383</v>
-      </c>
-      <c r="B145" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>384</v>
-      </c>
-      <c r="B146" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>385</v>
-      </c>
-      <c r="B147" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>386</v>
-      </c>
-      <c r="B148" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>387</v>
-      </c>
-      <c r="B149" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>388</v>
-      </c>
-      <c r="B150" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>389</v>
-      </c>
-      <c r="B151" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>390</v>
-      </c>
-      <c r="B152" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>391</v>
-      </c>
-      <c r="B153" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>392</v>
-      </c>
-      <c r="B154" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>393</v>
-      </c>
-      <c r="B155" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>108</v>
-      </c>
-      <c r="B156" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>374</v>
-      </c>
-      <c r="B157" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>394</v>
-      </c>
-      <c r="B158" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>376</v>
-      </c>
-      <c r="B159" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>395</v>
-      </c>
-      <c r="B160" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>396</v>
-      </c>
-      <c r="B161" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>397</v>
-      </c>
-      <c r="B162" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>102</v>
-      </c>
-      <c r="B163" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>398</v>
-      </c>
-      <c r="B164" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>399</v>
-      </c>
-      <c r="B165" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>400</v>
-      </c>
-      <c r="B166" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>401</v>
-      </c>
-      <c r="B167" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>402</v>
-      </c>
-      <c r="B168" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>403</v>
-      </c>
-      <c r="B169" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>137</v>
-      </c>
-      <c r="B170" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>357</v>
-      </c>
-      <c r="B171" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>404</v>
-      </c>
-      <c r="B172" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>405</v>
-      </c>
-      <c r="B173" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>406</v>
-      </c>
-      <c r="B174" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>378</v>
-      </c>
-      <c r="B175" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>407</v>
-      </c>
-      <c r="B176" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>408</v>
-      </c>
-      <c r="B177" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>409</v>
-      </c>
-      <c r="B178" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>410</v>
-      </c>
-      <c r="B179" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>411</v>
-      </c>
-      <c r="B180" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>412</v>
-      </c>
-      <c r="B181" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>413</v>
-      </c>
-      <c r="B182" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>414</v>
-      </c>
-      <c r="B183" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>137</v>
-      </c>
-      <c r="B184" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>415</v>
-      </c>
-      <c r="B185" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>416</v>
-      </c>
-      <c r="B186" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>417</v>
-      </c>
-      <c r="B187" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>418</v>
-      </c>
-      <c r="B188" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>419</v>
-      </c>
-      <c r="B189" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>420</v>
-      </c>
-      <c r="B190" t="s">
-        <v>267</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>